--- a/data/trans_dic/P15-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04207896258136936</v>
+        <v>0.04088332641495428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06207921020590988</v>
+        <v>0.06314751250529572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04615646971203943</v>
+        <v>0.04575453540167769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04919766931423505</v>
+        <v>0.04828860713660575</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04827688897751183</v>
+        <v>0.04716320065346275</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06969441545335654</v>
+        <v>0.06861721868079201</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05906740705820786</v>
+        <v>0.0591801087854454</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0887230650967856</v>
+        <v>0.08775245391999741</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0498463368783682</v>
+        <v>0.04848750582440117</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07177215445261713</v>
+        <v>0.07117403443688508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05732376217727771</v>
+        <v>0.05741280170991832</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07617621343001707</v>
+        <v>0.07633516499300678</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06951627169592016</v>
+        <v>0.07027555873071574</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09833767698807076</v>
+        <v>0.09874846271523122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07945785300763784</v>
+        <v>0.07803195973404087</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08607918356177505</v>
+        <v>0.08530659894597799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07452744905212817</v>
+        <v>0.07257992570910472</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1008658372167142</v>
+        <v>0.09861684027119655</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09469979129519637</v>
+        <v>0.09488741644850196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1198980297658426</v>
+        <v>0.1190850635577237</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06802923495458946</v>
+        <v>0.06795804706935187</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09446711351500249</v>
+        <v>0.0964677804777422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08284883978979772</v>
+        <v>0.08394402855720616</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1005308654853613</v>
+        <v>0.1007598653236825</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0583608012835341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0628620531547706</v>
+        <v>0.06286205315477059</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04564725300734856</v>
@@ -821,7 +821,7 @@
         <v>0.04317488099888536</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05113188344012656</v>
+        <v>0.05113188344012655</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06647320738557717</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07335241550201645</v>
+        <v>0.07313241090137254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08102540795375958</v>
+        <v>0.08175684947992101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04834284364848268</v>
+        <v>0.04855620850080739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05263688662089045</v>
+        <v>0.05271554688381502</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03588247283783481</v>
+        <v>0.03562246042958247</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05419862302025447</v>
+        <v>0.05406111481485049</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03420944201757509</v>
+        <v>0.03499463984526911</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04275690534242264</v>
+        <v>0.04286807267653332</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05785265054275391</v>
+        <v>0.058341368297713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07232798483476272</v>
+        <v>0.07233828625215248</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04393449333150602</v>
+        <v>0.04456104006767796</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.050406450627343</v>
+        <v>0.04998611377626239</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1005502528301514</v>
+        <v>0.1009425463120168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1088177260940852</v>
+        <v>0.1084091896040163</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06865708798341838</v>
+        <v>0.06988414611928073</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0754032197360741</v>
+        <v>0.07423000515056755</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05751836497699282</v>
+        <v>0.05562088694435448</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07829717849326663</v>
+        <v>0.07773960529263343</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0528653840265058</v>
+        <v>0.05401045482934487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06053995245518774</v>
+        <v>0.06062338559114791</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0751927123379683</v>
+        <v>0.0764335633297912</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09027254059517599</v>
+        <v>0.09005084936380234</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0579609028280122</v>
+        <v>0.059674843676383</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06485187057323691</v>
+        <v>0.06499518845085181</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05631186540583906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05855730045162607</v>
+        <v>0.05855730045162606</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0490509593298778</v>
@@ -957,7 +957,7 @@
         <v>0.05646494521615619</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0479527804000132</v>
+        <v>0.04795278040001321</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06271689327361096</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05515149506917377</v>
+        <v>0.05362984777504622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03522349127197798</v>
+        <v>0.03483297931254567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0388846538202607</v>
+        <v>0.03939919443430956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04090792907551705</v>
+        <v>0.04047220622612387</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03097901698102285</v>
+        <v>0.03202920106546343</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03980181833069262</v>
+        <v>0.04183539755308171</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03912219268006278</v>
+        <v>0.03693523942295302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03714297286986593</v>
+        <v>0.03698594667718175</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04849014477528718</v>
+        <v>0.04769849007116715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04390289495675522</v>
+        <v>0.0430667251905276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04335419916523086</v>
+        <v>0.04331018700893964</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04222763571701214</v>
+        <v>0.04239306462737839</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1004858444471534</v>
+        <v>0.1002592895560287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07890284456730455</v>
+        <v>0.07784588102888032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08080753047220762</v>
+        <v>0.08178185055126796</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08988801411438974</v>
+        <v>0.08523260023063205</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0736751263125535</v>
+        <v>0.07299226797172058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09027464143755695</v>
+        <v>0.09035230576107307</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08182603527799867</v>
+        <v>0.08155499535710545</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06406353876866169</v>
+        <v>0.06361058069358431</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07929495015529084</v>
+        <v>0.07971792193586251</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07568325408828516</v>
+        <v>0.07655732975843441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07354269058081934</v>
+        <v>0.07370559295588515</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06939157155888624</v>
+        <v>0.06874938153723464</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.05852610748790534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0624109588392754</v>
+        <v>0.06241095883927542</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05190305141419276</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07448837291917866</v>
+        <v>0.07512723147853113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05072117956385045</v>
+        <v>0.05074391978968869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05417209488806574</v>
+        <v>0.05354727559985741</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06381546929647255</v>
+        <v>0.06378994121843629</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04717893571448634</v>
+        <v>0.04597534742800128</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05574950585910602</v>
+        <v>0.05522684192803836</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07168661874203502</v>
+        <v>0.0719817710542297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05104224298167146</v>
+        <v>0.05040961689256029</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05643322963594642</v>
+        <v>0.05647854899221293</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09384847546744349</v>
+        <v>0.09361123096037105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06705780820826317</v>
+        <v>0.06635938173342434</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07255746948709245</v>
+        <v>0.07230633359901557</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0809903908697355</v>
+        <v>0.08183291288403466</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06201338069016443</v>
+        <v>0.06215212923305324</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06965422851459151</v>
+        <v>0.06929486468130489</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08550835179427518</v>
+        <v>0.08476265721773704</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06286486768950975</v>
+        <v>0.06147491528248773</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06795034234338004</v>
+        <v>0.06817320545101198</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43414</v>
+        <v>42180</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>60505</v>
+        <v>61546</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34818</v>
+        <v>34515</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28462</v>
+        <v>27936</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>63490</v>
+        <v>62025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>93237</v>
+        <v>91796</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>58752</v>
+        <v>58864</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>72934</v>
+        <v>72136</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>116981</v>
+        <v>113792</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>165969</v>
+        <v>164586</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>100260</v>
+        <v>100415</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>106690</v>
+        <v>106913</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71722</v>
+        <v>72505</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95844</v>
+        <v>96244</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59939</v>
+        <v>58863</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49799</v>
+        <v>49352</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>98012</v>
+        <v>95451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>134938</v>
+        <v>131929</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>94194</v>
+        <v>94381</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>98561</v>
+        <v>97892</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>159653</v>
+        <v>159486</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>218450</v>
+        <v>223076</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>144903</v>
+        <v>146819</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>140800</v>
+        <v>141121</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>124216</v>
+        <v>123843</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>159130</v>
+        <v>160567</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>100378</v>
+        <v>100821</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>117410</v>
+        <v>117586</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56970</v>
+        <v>56557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>95271</v>
+        <v>95029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>68019</v>
+        <v>69580</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>92842</v>
+        <v>93083</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>189820</v>
+        <v>191423</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>269187</v>
+        <v>269226</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>178580</v>
+        <v>181127</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>221887</v>
+        <v>220037</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>170273</v>
+        <v>170937</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>213713</v>
+        <v>212911</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>142559</v>
+        <v>145106</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>168192</v>
+        <v>165575</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>91320</v>
+        <v>88308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>137631</v>
+        <v>136651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>105112</v>
+        <v>107389</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131456</v>
+        <v>131637</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>246714</v>
+        <v>250785</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>335973</v>
+        <v>335148</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>235593</v>
+        <v>242559</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>285475</v>
+        <v>286106</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30411</v>
+        <v>29572</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16949</v>
+        <v>16761</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21265</v>
+        <v>21547</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29110</v>
+        <v>28799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14759</v>
+        <v>15259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18254</v>
+        <v>19187</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21484</v>
+        <v>20283</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27296</v>
+        <v>27180</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>49839</v>
+        <v>49025</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41261</v>
+        <v>40475</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47517</v>
+        <v>47469</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61081</v>
+        <v>61320</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55409</v>
+        <v>55284</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37967</v>
+        <v>37458</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44193</v>
+        <v>44725</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63963</v>
+        <v>60650</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>35100</v>
+        <v>34774</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41403</v>
+        <v>41438</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>44934</v>
+        <v>44785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>47079</v>
+        <v>46746</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81501</v>
+        <v>81936</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>71128</v>
+        <v>71950</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>80605</v>
+        <v>80783</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100372</v>
+        <v>99444</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>254734</v>
+        <v>256919</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>171317</v>
+        <v>171394</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>190723</v>
+        <v>188523</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>226815</v>
+        <v>226724</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>166641</v>
+        <v>162390</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207851</v>
+        <v>205903</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>499943</v>
+        <v>502002</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>352688</v>
+        <v>348316</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>409084</v>
+        <v>409412</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>320941</v>
+        <v>320130</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>226496</v>
+        <v>224137</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>255452</v>
+        <v>254568</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>287858</v>
+        <v>290853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>219037</v>
+        <v>219528</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>259692</v>
+        <v>258353</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>596336</v>
+        <v>591136</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>434379</v>
+        <v>424774</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>492571</v>
+        <v>494187</v>
       </c>
     </row>
     <row r="20">
